--- a/VerveStacks_BGR_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62E263A-16D0-4530-8CCE-589FB3010C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{439A7FF0-1A3A-433A-9F3C-3D825BEB3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00698974-70DF-C293-CFA7-E5FB099A8084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89882495-F6FA-0714-E79C-846D22DBC651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E12DDBC-06CC-40B7-908A-74C87A014D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA5BFBB-7E88-4D74-9EDB-635224B0A421}">
   <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E687311E-C9BD-47DD-B16E-926A4B016039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14407DF9-50C5-4833-ABD2-0C088B5863FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2835,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4930851-41CD-4ECD-91E3-39552DC98C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB64BAF-CEC9-4E35-B9A7-1540F17B5E12}">
   <dimension ref="B2:AI199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
